--- a/src/assets/prototip.xlsx
+++ b/src/assets/prototip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel\WebstormProjects\Creator-WebSite\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raynsosling/WebstormProjects/pages/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4010CC-6D57-4B17-84EF-15473BD07D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CBCF15-7E54-A24E-AFC2-94E620AFB02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="1116" windowWidth="17280" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="1120" windowWidth="17280" windowHeight="11120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Данные 1 страницы макета</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>eb</t>
+  </si>
+  <si>
+    <t>The Catalyzer</t>
+  </si>
+  <si>
+    <t>Photo booth fam kinfolk cold-pressed sriracha leggings jianbing microdosing tousled waistcoat.</t>
   </si>
 </sst>
 </file>
@@ -456,35 +462,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="3" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="3" width="35.5" customWidth="1"/>
     <col min="4" max="4" width="41.6640625" customWidth="1"/>
-    <col min="5" max="5" width="62.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="62.5" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" customWidth="1"/>
-    <col min="13" max="14" width="17.77734375" customWidth="1"/>
+    <col min="13" max="14" width="17.83203125" customWidth="1"/>
     <col min="15" max="15" width="17.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.77734375" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="17.88671875" customWidth="1"/>
+    <col min="19" max="20" width="17.83203125" customWidth="1"/>
     <col min="21" max="21" width="17.6640625" customWidth="1"/>
-    <col min="22" max="22" width="17.5546875" customWidth="1"/>
+    <col min="22" max="22" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +522,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -585,7 +590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -630,6 +635,26 @@
       </c>
       <c r="V3">
         <v>14135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
